--- a/output.xlsx
+++ b/output.xlsx
@@ -379,7 +379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -412,134 +412,84 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Karnatak</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Banglore</t>
+          <t>Nagar</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>120</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
+      </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>Mysore</t>
-        </is>
-      </c>
+      <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Satara</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Maharashtra</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>Nagar</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
       <c r="D5" t="n">
-        <v>325</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>Pune</t>
-        </is>
-      </c>
+      <c r="B6" s="1" t="n"/>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>Satara</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
         <v>225</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
